--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F254" t="n">
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15/04/2020</t>
+          <t>16/04/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/03/2022</t>
+          <t>07/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,7 +12679,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,7 +12679,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F258" t="n">
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aquiluz Solar</t>
+          <t>Ampliación Packing Merquén SpA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CVE Proyecto Once SpA.</t>
+          <t>Packing Merquen SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12160</v>
+        <v>11200</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155644762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155644628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación Packing Merquén SpA</t>
+          <t>Aquiluz Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Packing Merquen SPA</t>
+          <t>CVE Proyecto Once SpA.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11200</v>
+        <v>12160</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/04/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155644628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155644762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación Packing Merquén SpA</t>
+          <t>Aquiluz Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Packing Merquen SPA</t>
+          <t>CVE Proyecto Once SpA.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11200</v>
+        <v>12160</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/04/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155644628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155644762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aquiluz Solar</t>
+          <t>Ampliación Packing Merquén SpA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CVE Proyecto Once SpA.</t>
+          <t>Packing Merquen SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12160</v>
+        <v>11200</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155644762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155644628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,7 +12679,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F258" t="n">
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F259" t="n">
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/05/2022</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.541919999999999</v>
+        <v>6542</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F258" t="n">
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F260" t="n">
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F259" t="n">
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cousiño</t>
+          <t>Planta de Transformación de Residuos Agroindustriales Agrícola Regia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tedlar Marte SpA</t>
+          <t>agricola regia spa</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8000</v>
+        <v>300</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156496461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156498335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta de Transformación de Residuos Agroindustriales Agrícola Regia</t>
+          <t>Parque Fotovoltaico Cousiño</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>agricola regia spa</t>
+          <t>Tedlar Marte SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>8000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156498335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156496461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16/04/2020</t>
+          <t>15/04/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F222" t="n">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Telefonica Empresa Chile S.A</t>
+          <t>Digital holdings chile spa</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Cantillana SpA.</t>
         </is>
       </c>
       <c r="F14" t="n">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>PSF Paine SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F17" t="n">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15/04/2020</t>
+          <t>16/04/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16/04/2020</t>
+          <t>15/04/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/06/2023</t>
+          <t>04/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">

--- a/data/Paine.xlsx
+++ b/data/Paine.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Proyecto Centro Turístico INVERZAR</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>17700</v>
+        <v>7000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico INVERZAR</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones e Inmobiliaria INVERZAR LTDA.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4937175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
